--- a/biology/Médecine/1834_en_santé_et_médecine/1834_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1834_en_santé_et_médecine/1834_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1834_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1834_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1834 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1834_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1834_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Évènements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>23 janvier : Mary Aikenhead fonde le St. Vincent's University Hospital à Dublin[1].
-1er décembre : ouverture de l'Hôpital des cliniques de la faculté de médecine de Paris, édifié avec le soutien du doyen Mathieu Orfila (1787-1853[2]).</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>23 janvier : Mary Aikenhead fonde le St. Vincent's University Hospital à Dublin.
+1er décembre : ouverture de l'Hôpital des cliniques de la faculté de médecine de Paris, édifié avec le soutien du doyen Mathieu Orfila (1787-1853).</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1834_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1834_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Joseph-François Malgaigne : Manuel de chirurgie opératoire.</t>
         </is>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1834_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1834_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,7 +588,9 @@
           <t>Récompense</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jean-Nicolas Gannal obtient le prix Montyon.</t>
         </is>
@@ -584,7 +602,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1834_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1834_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -602,10 +620,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>6 février : Edwin Klebs (mort en 1913), médecin allemand.
-27 juillet : Samuel Chédevergne (mort en 1902), chirurgien français[3].
+27 juillet : Samuel Chédevergne (mort en 1902), chirurgien français.
 8 décembre : Paul Tillaux (mort en 1904), chirurgien et anatomiste français.</t>
         </is>
       </c>
@@ -616,7 +636,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1834_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1834_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -634,7 +654,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">29 décembre : Thomas Malthus (né en 1766), économiste britannique, partisan du contrôle des naissances.
 </t>
